--- a/data/gdrive/Vocabulary_Tests_Evaluation.xlsx
+++ b/data/gdrive/Vocabulary_Tests_Evaluation.xlsx
@@ -345,16 +345,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -435,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -514,6 +521,9 @@
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -752,17 +762,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.14"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
-    <col customWidth="1" min="5" max="5" width="19.57"/>
-    <col customWidth="1" min="6" max="6" width="15.57"/>
-    <col customWidth="1" min="9" max="9" width="5.0"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="4.71"/>
-    <col customWidth="1" min="13" max="13" width="17.0"/>
-    <col customWidth="1" min="16" max="16" width="16.43"/>
+    <col customWidth="1" min="1" max="1" width="19.38"/>
+    <col customWidth="1" min="2" max="2" width="10.13"/>
+    <col customWidth="1" min="5" max="5" width="17.13"/>
+    <col customWidth="1" min="6" max="6" width="13.63"/>
+    <col customWidth="1" min="9" max="9" width="4.38"/>
+    <col customWidth="1" min="10" max="10" width="4.63"/>
+    <col customWidth="1" min="11" max="11" width="4.13"/>
+    <col customWidth="1" min="13" max="13" width="14.88"/>
+    <col customWidth="1" min="16" max="16" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -939,14 +949,14 @@
       <c r="L11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="27" t="s">
         <v>43</v>
       </c>
       <c r="O11" s="26"/>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="27" t="s">
         <v>44</v>
       </c>
       <c r="Q11" s="25"/>
@@ -961,7 +971,7 @@
       <c r="Z11" s="25"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>45</v>
       </c>
       <c r="I12" s="22"/>
@@ -988,7 +998,7 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="22"/>
@@ -997,7 +1007,7 @@
       <c r="O14" s="22"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="22"/>
@@ -1018,7 +1028,7 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
@@ -1117,12 +1127,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1132,12 +1142,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1154,7 +1164,7 @@
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
@@ -1253,12 +1263,12 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="28" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1268,12 +1278,12 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4179,7 +4189,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -4219,17 +4229,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="8.29"/>
-    <col customWidth="1" min="3" max="3" width="6.71"/>
-    <col customWidth="1" min="4" max="4" width="7.29"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="7.57"/>
-    <col customWidth="1" min="7" max="7" width="8.0"/>
-    <col customWidth="1" min="8" max="8" width="7.29"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="19.88"/>
+    <col customWidth="1" min="2" max="2" width="7.25"/>
+    <col customWidth="1" min="3" max="3" width="5.88"/>
+    <col customWidth="1" min="4" max="4" width="6.38"/>
+    <col customWidth="1" min="5" max="5" width="8.75"/>
+    <col customWidth="1" min="6" max="6" width="6.63"/>
+    <col customWidth="1" min="7" max="7" width="7.0"/>
+    <col customWidth="1" min="8" max="8" width="6.38"/>
+    <col customWidth="1" min="9" max="9" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4254,22 +4264,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="32" t="s">
         <v>62</v>
       </c>
     </row>
